--- a/rui_hachimura_games_2019_2025.xlsx
+++ b/rui_hachimura_games_2019_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P338"/>
+  <dimension ref="A1:Q338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,25 +491,30 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>OREB</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>REB</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>PLUS_MINUS</t>
         </is>
@@ -556,18 +561,21 @@
         <v>0.333</v>
       </c>
       <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -612,11 +620,11 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
@@ -624,6 +632,9 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -668,18 +679,21 @@
         <v>0.5</v>
       </c>
       <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -724,18 +738,21 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -780,18 +797,21 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
         <v>7</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>6</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -836,18 +856,21 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -892,18 +915,21 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
       <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
       <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -948,18 +974,21 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>7</v>
       </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,18 +1033,21 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>6</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -1060,18 +1092,21 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
         <v>8</v>
       </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1116,18 +1151,21 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>-16</v>
       </c>
     </row>
@@ -1172,18 +1210,21 @@
         <v>0.5</v>
       </c>
       <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1228,11 +1269,11 @@
         <v>0.5</v>
       </c>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>8</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
@@ -1240,6 +1281,9 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1284,18 +1328,21 @@
         <v>0.5</v>
       </c>
       <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
         <v>7</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,18 +1387,21 @@
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,18 +1446,21 @@
         <v>0.5</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,18 +1505,21 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>8</v>
       </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
       <c r="N18" t="n">
         <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1508,18 +1564,21 @@
         <v>0.333</v>
       </c>
       <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
         <v>7</v>
       </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -1564,18 +1623,21 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1620,18 +1682,21 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
       </c>
       <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1676,18 +1741,21 @@
         <v>0.5</v>
       </c>
       <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
         <v>11</v>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -1732,18 +1800,21 @@
         <v>0.5</v>
       </c>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>6</v>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -1788,18 +1859,21 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>8</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -1844,18 +1918,21 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -1900,18 +1977,21 @@
         <v>0.5</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
         <v>-18</v>
       </c>
     </row>
@@ -1956,18 +2036,21 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
         <v>12</v>
       </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>5</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>-30</v>
       </c>
     </row>
@@ -2012,18 +2095,21 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
         <v>7</v>
       </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
         <v>-34</v>
       </c>
     </row>
@@ -2068,18 +2154,21 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
         <v>6</v>
       </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
       </c>
       <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -2124,18 +2213,21 @@
         <v>0.333</v>
       </c>
       <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
         <v>7</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,18 +2272,21 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>6</v>
       </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2236,18 +2331,21 @@
         <v>0.4</v>
       </c>
       <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
         <v>9</v>
       </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -2292,18 +2390,21 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
         <v>8</v>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
         <v>-27</v>
       </c>
     </row>
@@ -2348,18 +2449,21 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
         <v>6</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2404,18 +2508,21 @@
         <v>0.333</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
         <v>-16</v>
       </c>
     </row>
@@ -2460,18 +2567,21 @@
         <v>0.5</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -2516,18 +2626,21 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
       </c>
       <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -2572,18 +2685,21 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
         <v>7</v>
       </c>
-      <c r="M38" t="n">
-        <v>2</v>
-      </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2628,18 +2744,21 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -2684,18 +2803,21 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2740,18 +2862,21 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>5</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -2796,18 +2921,21 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
         <v>7</v>
       </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -2852,18 +2980,21 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
         <v>8</v>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>-19</v>
       </c>
     </row>
@@ -2908,18 +3039,21 @@
         <v>0.5</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -2964,18 +3098,21 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
         <v>-28</v>
       </c>
     </row>
@@ -3020,18 +3157,21 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -3076,18 +3216,21 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="n">
         <v>8</v>
       </c>
-      <c r="M47" t="n">
-        <v>3</v>
-      </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -3132,18 +3275,21 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="M48" t="n">
-        <v>2</v>
-      </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
         <v>1</v>
       </c>
       <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3188,18 +3334,21 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="n">
         <v>10</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3244,18 +3393,21 @@
         <v>0.667</v>
       </c>
       <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
         <v>6</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -3300,18 +3452,21 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3356,18 +3511,21 @@
         <v>0.5</v>
       </c>
       <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
         <v>6</v>
       </c>
-      <c r="M52" t="n">
-        <v>3</v>
-      </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3412,18 +3570,21 @@
         <v>0.333</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
       </c>
       <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3468,18 +3629,21 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
         <v>6</v>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
       <c r="N54" t="n">
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3524,18 +3688,21 @@
         <v>0.5</v>
       </c>
       <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
         <v>7</v>
       </c>
-      <c r="M55" t="n">
-        <v>2</v>
-      </c>
       <c r="N55" t="n">
         <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3580,18 +3747,21 @@
         <v>0.5</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -3636,18 +3806,21 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3692,18 +3865,21 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3748,18 +3924,21 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
         <v>6</v>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3804,18 +3983,21 @@
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3860,18 +4042,21 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -3916,18 +4101,21 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3972,18 +4160,21 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
         <v>6</v>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>6</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -4028,18 +4219,21 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
         <v>7</v>
       </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
         <v>-21</v>
       </c>
     </row>
@@ -4084,18 +4278,21 @@
         <v>0.5</v>
       </c>
       <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
         <v>5</v>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4140,11 +4337,11 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
         <v>7</v>
       </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
       <c r="N66" t="n">
         <v>2</v>
       </c>
@@ -4152,6 +4349,9 @@
         <v>2</v>
       </c>
       <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4196,18 +4396,21 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
         <v>-21</v>
       </c>
     </row>
@@ -4252,18 +4455,21 @@
         <v>0.5</v>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O68" t="n">
         <v>2</v>
       </c>
       <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -4308,18 +4514,21 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
         <v>8</v>
       </c>
-      <c r="M69" t="n">
-        <v>3</v>
-      </c>
       <c r="N69" t="n">
         <v>3</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4364,18 +4573,21 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
         <v>6</v>
       </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>3</v>
       </c>
       <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4420,18 +4632,21 @@
         <v>0.333</v>
       </c>
       <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
         <v>9</v>
       </c>
-      <c r="M71" t="n">
-        <v>2</v>
-      </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4476,18 +4691,21 @@
         <v>0.333</v>
       </c>
       <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
         <v>7</v>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
       <c r="N72" t="n">
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -4532,18 +4750,21 @@
         <v>1</v>
       </c>
       <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
         <v>10</v>
       </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4588,18 +4809,21 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
         <v>7</v>
       </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4644,18 +4868,21 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
         <v>9</v>
       </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4700,18 +4927,21 @@
         <v>0.444</v>
       </c>
       <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
         <v>7</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>5</v>
       </c>
-      <c r="N76" t="n">
-        <v>2</v>
-      </c>
       <c r="O76" t="n">
         <v>2</v>
       </c>
       <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -4756,18 +4986,21 @@
         <v>0.6</v>
       </c>
       <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
         <v>11</v>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
         <v>2</v>
       </c>
       <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4818,12 +5051,15 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>1</v>
       </c>
       <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -4868,11 +5104,11 @@
         <v>0.333</v>
       </c>
       <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
         <v>6</v>
       </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
@@ -4880,6 +5116,9 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -4924,18 +5163,21 @@
         <v>0.5</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="n">
         <v>5</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4980,18 +5222,21 @@
         <v>0.333</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
         <v>-26</v>
       </c>
     </row>
@@ -5036,11 +5281,11 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
         <v>6</v>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
       <c r="N82" t="n">
         <v>1</v>
       </c>
@@ -5048,6 +5293,9 @@
         <v>1</v>
       </c>
       <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5092,18 +5340,21 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
         <v>6</v>
       </c>
-      <c r="M83" t="n">
-        <v>2</v>
-      </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5148,18 +5399,21 @@
         <v>0.25</v>
       </c>
       <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
         <v>5</v>
       </c>
-      <c r="M84" t="n">
-        <v>2</v>
-      </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5204,11 +5458,11 @@
         <v>1</v>
       </c>
       <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
         <v>9</v>
       </c>
-      <c r="M85" t="n">
-        <v>2</v>
-      </c>
       <c r="N85" t="n">
         <v>2</v>
       </c>
@@ -5216,6 +5470,9 @@
         <v>2</v>
       </c>
       <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -5260,18 +5517,21 @@
         <v>0.5</v>
       </c>
       <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
         <v>6</v>
       </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5316,18 +5576,21 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
         <v>7</v>
       </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5372,18 +5635,21 @@
         <v>0.25</v>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
       <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -5428,18 +5694,21 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
         <v>9</v>
       </c>
-      <c r="M89" t="n">
-        <v>3</v>
-      </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5484,18 +5753,21 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N90" t="n">
         <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5540,18 +5812,21 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
         <v>5</v>
       </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
         <v>-25</v>
       </c>
     </row>
@@ -5596,18 +5871,21 @@
         <v>0.2</v>
       </c>
       <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
         <v>7</v>
       </c>
-      <c r="M92" t="n">
-        <v>3</v>
-      </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -5652,18 +5930,21 @@
         <v>0.333</v>
       </c>
       <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
         <v>10</v>
       </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -5708,11 +5989,11 @@
         <v>1</v>
       </c>
       <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
         <v>6</v>
       </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
@@ -5720,6 +6001,9 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
         <v>-29</v>
       </c>
     </row>
@@ -5764,18 +6048,21 @@
         <v>0.333</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
         <v>-25</v>
       </c>
     </row>
@@ -5820,18 +6107,21 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
         <v>9</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>5</v>
       </c>
-      <c r="N96" t="n">
-        <v>3</v>
-      </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5876,18 +6166,21 @@
         <v>0.75</v>
       </c>
       <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
         <v>5</v>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
       <c r="N97" t="n">
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -5932,18 +6225,21 @@
         <v>0.25</v>
       </c>
       <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
         <v>5</v>
       </c>
-      <c r="M98" t="n">
-        <v>2</v>
-      </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -5988,18 +6284,21 @@
         <v>0.5</v>
       </c>
       <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
         <v>5</v>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
       <c r="N99" t="n">
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -6044,18 +6343,21 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
         <v>9</v>
       </c>
-      <c r="M100" t="n">
-        <v>3</v>
-      </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -6100,18 +6402,21 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
         <v>5</v>
       </c>
-      <c r="M101" t="n">
-        <v>2</v>
-      </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6156,18 +6461,21 @@
         <v>0.333</v>
       </c>
       <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
         <v>5</v>
       </c>
-      <c r="M102" t="n">
-        <v>3</v>
-      </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
         <v>-16</v>
       </c>
     </row>
@@ -6212,18 +6520,21 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -6268,18 +6579,21 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -6324,18 +6638,21 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6380,18 +6697,21 @@
         <v>1</v>
       </c>
       <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
         <v>5</v>
       </c>
-      <c r="M106" t="n">
-        <v>3</v>
-      </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6436,18 +6756,21 @@
         <v>0.25</v>
       </c>
       <c r="L107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -6492,18 +6815,21 @@
         <v>0.6</v>
       </c>
       <c r="L108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -6548,18 +6874,21 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
         <v>6</v>
       </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
         <v>-19</v>
       </c>
     </row>
@@ -6604,18 +6933,21 @@
         <v>0.75</v>
       </c>
       <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
         <v>5</v>
       </c>
-      <c r="M110" t="n">
-        <v>4</v>
-      </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6660,18 +6992,21 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
         <v>7</v>
       </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -6716,18 +7051,21 @@
         <v>0.75</v>
       </c>
       <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
         <v>5</v>
       </c>
-      <c r="M112" t="n">
-        <v>4</v>
-      </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q112" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6772,18 +7110,21 @@
         <v>0.25</v>
       </c>
       <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
         <v>7</v>
       </c>
-      <c r="M113" t="n">
-        <v>3</v>
-      </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6828,18 +7169,21 @@
         <v>0.667</v>
       </c>
       <c r="L114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -6884,18 +7228,21 @@
         <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q115" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -6940,11 +7287,11 @@
         <v>0.2</v>
       </c>
       <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
         <v>5</v>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
       <c r="N116" t="n">
         <v>1</v>
       </c>
@@ -6952,6 +7299,9 @@
         <v>1</v>
       </c>
       <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,11 +7346,11 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
         <v>7</v>
       </c>
-      <c r="M117" t="n">
-        <v>0</v>
-      </c>
       <c r="N117" t="n">
         <v>0</v>
       </c>
@@ -7008,6 +7358,9 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -7052,11 +7405,11 @@
         <v>0.4</v>
       </c>
       <c r="L118" t="n">
+        <v>3</v>
+      </c>
+      <c r="M118" t="n">
         <v>8</v>
       </c>
-      <c r="M118" t="n">
-        <v>2</v>
-      </c>
       <c r="N118" t="n">
         <v>2</v>
       </c>
@@ -7064,6 +7417,9 @@
         <v>2</v>
       </c>
       <c r="P118" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q118" t="n">
         <v>-16</v>
       </c>
     </row>
@@ -7108,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
@@ -7117,9 +7473,12 @@
         <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -7164,18 +7523,21 @@
         <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P120" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q120" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -7220,18 +7582,21 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
         <v>7</v>
       </c>
-      <c r="M121" t="n">
-        <v>3</v>
-      </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P121" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q121" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -7276,10 +7641,10 @@
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N122" t="n">
         <v>1</v>
@@ -7288,6 +7653,9 @@
         <v>1</v>
       </c>
       <c r="P122" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -7332,18 +7700,21 @@
         <v>0.5</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -7388,18 +7759,21 @@
         <v>0.667</v>
       </c>
       <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
         <v>6</v>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q124" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7444,10 +7818,10 @@
         <v>0.25</v>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N125" t="n">
         <v>1</v>
@@ -7456,6 +7830,9 @@
         <v>1</v>
       </c>
       <c r="P125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q125" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -7500,10 +7877,10 @@
         <v>0.25</v>
       </c>
       <c r="L126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -7512,6 +7889,9 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
         <v>-10</v>
       </c>
     </row>
@@ -7556,18 +7936,21 @@
         <v>0.75</v>
       </c>
       <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
         <v>6</v>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
       <c r="N127" t="n">
         <v>1</v>
       </c>
       <c r="O127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P127" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q127" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -7615,15 +7998,18 @@
         <v>1</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q128" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7668,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
         <v>1</v>
@@ -7677,9 +8063,12 @@
         <v>1</v>
       </c>
       <c r="O129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P129" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q129" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -7724,18 +8113,21 @@
         <v>0.5</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q130" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -7792,6 +8184,9 @@
         <v>1</v>
       </c>
       <c r="P131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7836,18 +8231,21 @@
         <v>0.333</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7892,18 +8290,21 @@
         <v>0.667</v>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q133" t="n">
         <v>-10</v>
       </c>
     </row>
@@ -7948,18 +8349,21 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M134" t="n">
         <v>4</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
         <v>11</v>
       </c>
     </row>
@@ -8004,18 +8408,21 @@
         <v>0.667</v>
       </c>
       <c r="L135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N135" t="n">
         <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q135" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -8060,18 +8467,21 @@
         <v>0</v>
       </c>
       <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
         <v>6</v>
       </c>
-      <c r="M136" t="n">
-        <v>0</v>
-      </c>
       <c r="N136" t="n">
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P136" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8116,18 +8526,21 @@
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N137" t="n">
         <v>1</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8172,18 +8585,21 @@
         <v>0.333</v>
       </c>
       <c r="L138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8228,18 +8644,21 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139" t="n">
         <v>2</v>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O139" t="n">
         <v>1</v>
       </c>
       <c r="P139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q139" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -8284,7 +8703,7 @@
         <v>0.5</v>
       </c>
       <c r="L140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
         <v>2</v>
@@ -8293,9 +8712,12 @@
         <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q140" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -8340,18 +8762,21 @@
         <v>0.5</v>
       </c>
       <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
         <v>7</v>
       </c>
-      <c r="M141" t="n">
-        <v>2</v>
-      </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
       </c>
       <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8396,11 +8821,11 @@
         <v>0.333</v>
       </c>
       <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
         <v>8</v>
       </c>
-      <c r="M142" t="n">
-        <v>0</v>
-      </c>
       <c r="N142" t="n">
         <v>0</v>
       </c>
@@ -8408,6 +8833,9 @@
         <v>0</v>
       </c>
       <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -8452,11 +8880,11 @@
         <v>0.5</v>
       </c>
       <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
         <v>5</v>
       </c>
-      <c r="M143" t="n">
-        <v>0</v>
-      </c>
       <c r="N143" t="n">
         <v>0</v>
       </c>
@@ -8464,6 +8892,9 @@
         <v>0</v>
       </c>
       <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8508,18 +8939,21 @@
         <v>0.5</v>
       </c>
       <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
         <v>5</v>
       </c>
-      <c r="M144" t="n">
-        <v>0</v>
-      </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>1</v>
       </c>
       <c r="P144" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q144" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8564,10 +8998,10 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N145" t="n">
         <v>1</v>
@@ -8576,6 +9010,9 @@
         <v>1</v>
       </c>
       <c r="P145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q145" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8620,18 +9057,21 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8676,10 +9116,10 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N147" t="n">
         <v>1</v>
@@ -8688,6 +9128,9 @@
         <v>1</v>
       </c>
       <c r="P147" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q147" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -8732,18 +9175,21 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P148" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q148" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -8788,18 +9234,21 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
         <v>5</v>
       </c>
-      <c r="M149" t="n">
-        <v>2</v>
-      </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O149" t="n">
         <v>0</v>
       </c>
       <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -8844,18 +9293,21 @@
         <v>1</v>
       </c>
       <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
         <v>5</v>
       </c>
-      <c r="M150" t="n">
-        <v>2</v>
-      </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
       </c>
       <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8900,18 +9352,21 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P151" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q151" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -8956,18 +9411,21 @@
         <v>0.25</v>
       </c>
       <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
         <v>6</v>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
       <c r="N152" t="n">
         <v>1</v>
       </c>
       <c r="O152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P152" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9012,18 +9470,21 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
         <v>12</v>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
       <c r="N153" t="n">
         <v>1</v>
       </c>
       <c r="O153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P153" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q153" t="n">
         <v>22</v>
       </c>
     </row>
@@ -9068,18 +9529,21 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
         <v>6</v>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
       <c r="N154" t="n">
         <v>1</v>
       </c>
       <c r="O154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P154" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q154" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9124,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N155" t="n">
         <v>1</v>
@@ -9136,6 +9600,9 @@
         <v>1</v>
       </c>
       <c r="P155" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q155" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -9180,18 +9647,21 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N156" t="n">
         <v>1</v>
       </c>
       <c r="O156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P156" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9236,18 +9706,21 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
       </c>
       <c r="O157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q157" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9292,18 +9765,21 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
         <v>5</v>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9348,10 +9824,10 @@
         <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -9360,6 +9836,9 @@
         <v>0</v>
       </c>
       <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9410,12 +9889,15 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -9460,18 +9942,21 @@
         <v>0.667</v>
       </c>
       <c r="L161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O161" t="n">
         <v>1</v>
       </c>
       <c r="P161" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q161" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -9516,18 +10001,21 @@
         <v>0.667</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
       </c>
       <c r="O162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P162" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q162" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9572,18 +10060,21 @@
         <v>0.5</v>
       </c>
       <c r="L163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
         <v>21</v>
       </c>
     </row>
@@ -9628,18 +10119,21 @@
         <v>0.333</v>
       </c>
       <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
         <v>6</v>
       </c>
-      <c r="M164" t="n">
-        <v>0</v>
-      </c>
       <c r="N164" t="n">
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q164" t="n">
         <v>22</v>
       </c>
     </row>
@@ -9684,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -9696,6 +10190,9 @@
         <v>0</v>
       </c>
       <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -9740,18 +10237,21 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N166" t="n">
         <v>1</v>
       </c>
       <c r="O166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P166" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q166" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -9796,18 +10296,21 @@
         <v>0.5</v>
       </c>
       <c r="L167" t="n">
+        <v>3</v>
+      </c>
+      <c r="M167" t="n">
         <v>9</v>
       </c>
-      <c r="M167" t="n">
-        <v>2</v>
-      </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P167" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q167" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9852,18 +10355,21 @@
         <v>0.5</v>
       </c>
       <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
         <v>5</v>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
       <c r="N168" t="n">
         <v>1</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -9908,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -9920,6 +10426,9 @@
         <v>0</v>
       </c>
       <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -9964,18 +10473,21 @@
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10020,18 +10532,21 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
         <v>1</v>
       </c>
       <c r="P171" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q171" t="n">
         <v>8</v>
       </c>
     </row>
@@ -10076,18 +10591,21 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
+        <v>4</v>
+      </c>
+      <c r="M172" t="n">
         <v>7</v>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
       <c r="N172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -10132,18 +10650,21 @@
         <v>0.5</v>
       </c>
       <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
         <v>7</v>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173" t="n">
         <v>0</v>
       </c>
       <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
         <v>12</v>
       </c>
     </row>
@@ -10188,18 +10709,21 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
         <v>6</v>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P174" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q174" t="n">
         <v>-10</v>
       </c>
     </row>
@@ -10244,18 +10768,21 @@
         <v>1</v>
       </c>
       <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
         <v>6</v>
       </c>
-      <c r="M175" t="n">
-        <v>0</v>
-      </c>
       <c r="N175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -10300,11 +10827,11 @@
         <v>0.5</v>
       </c>
       <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
         <v>5</v>
       </c>
-      <c r="M176" t="n">
-        <v>0</v>
-      </c>
       <c r="N176" t="n">
         <v>0</v>
       </c>
@@ -10312,6 +10839,9 @@
         <v>0</v>
       </c>
       <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10356,18 +10886,21 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
         <v>9</v>
       </c>
-      <c r="M177" t="n">
-        <v>0</v>
-      </c>
       <c r="N177" t="n">
         <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P177" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q177" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -10412,18 +10945,21 @@
         <v>0.5</v>
       </c>
       <c r="L178" t="n">
+        <v>3</v>
+      </c>
+      <c r="M178" t="n">
         <v>9</v>
       </c>
-      <c r="M178" t="n">
-        <v>0</v>
-      </c>
       <c r="N178" t="n">
         <v>0</v>
       </c>
       <c r="O178" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P178" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10468,18 +11004,21 @@
         <v>0.5</v>
       </c>
       <c r="L179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M179" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N179" t="n">
         <v>1</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -10524,18 +11063,21 @@
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P180" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q180" t="n">
         <v>6</v>
       </c>
     </row>
@@ -10580,18 +11122,21 @@
         <v>0.333</v>
       </c>
       <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
         <v>6</v>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
       <c r="N181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O181" t="n">
         <v>0</v>
       </c>
       <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
         <v>17</v>
       </c>
     </row>
@@ -10636,18 +11181,21 @@
         <v>0.6</v>
       </c>
       <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
         <v>5</v>
       </c>
-      <c r="M182" t="n">
-        <v>0</v>
-      </c>
       <c r="N182" t="n">
         <v>0</v>
       </c>
       <c r="O182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P182" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q182" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10692,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
         <v>1</v>
@@ -10701,9 +11249,12 @@
         <v>1</v>
       </c>
       <c r="O183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P183" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q183" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -10748,18 +11299,21 @@
         <v>0.667</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O184" t="n">
         <v>1</v>
       </c>
       <c r="P184" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q184" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -10804,18 +11358,21 @@
         <v>0.143</v>
       </c>
       <c r="L185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O185" t="n">
         <v>0</v>
       </c>
       <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10860,18 +11417,21 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
         <v>5</v>
       </c>
-      <c r="M186" t="n">
-        <v>0</v>
-      </c>
       <c r="N186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O186" t="n">
         <v>1</v>
       </c>
       <c r="P186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -10916,18 +11476,21 @@
         <v>0.333</v>
       </c>
       <c r="L187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N187" t="n">
         <v>1</v>
       </c>
       <c r="O187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P187" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q187" t="n">
         <v>-22</v>
       </c>
     </row>
@@ -10975,15 +11538,18 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O188" t="n">
         <v>3</v>
       </c>
       <c r="P188" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q188" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -11028,18 +11594,21 @@
         <v>1</v>
       </c>
       <c r="L189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P189" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q189" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -11084,18 +11653,21 @@
         <v>0.6</v>
       </c>
       <c r="L190" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O190" t="n">
         <v>1</v>
       </c>
       <c r="P190" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q190" t="n">
         <v>18</v>
       </c>
     </row>
@@ -11140,18 +11712,21 @@
         <v>0.2</v>
       </c>
       <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
         <v>7</v>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
       <c r="N191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P191" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q191" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11196,18 +11771,21 @@
         <v>0.5</v>
       </c>
       <c r="L192" t="n">
+        <v>3</v>
+      </c>
+      <c r="M192" t="n">
         <v>5</v>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
       <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
         <v>19</v>
       </c>
     </row>
@@ -11255,15 +11833,18 @@
         <v>1</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
       </c>
       <c r="O193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P193" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q193" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11308,18 +11889,21 @@
         <v>0.429</v>
       </c>
       <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
         <v>5</v>
       </c>
-      <c r="M194" t="n">
-        <v>4</v>
-      </c>
       <c r="N194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P194" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q194" t="n">
         <v>6</v>
       </c>
     </row>
@@ -11364,11 +11948,11 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
         <v>7</v>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
       <c r="N195" t="n">
         <v>1</v>
       </c>
@@ -11376,6 +11960,9 @@
         <v>1</v>
       </c>
       <c r="P195" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q195" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -11420,18 +12007,21 @@
         <v>0.333</v>
       </c>
       <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
         <v>8</v>
       </c>
-      <c r="M196" t="n">
-        <v>3</v>
-      </c>
       <c r="N196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P196" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q196" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -11476,18 +12066,21 @@
         <v>0.667</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O197" t="n">
         <v>0</v>
       </c>
       <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -11532,18 +12125,21 @@
         <v>0.5</v>
       </c>
       <c r="L198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P198" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q198" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11588,10 +12184,10 @@
         <v>0.25</v>
       </c>
       <c r="L199" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N199" t="n">
         <v>1</v>
@@ -11600,6 +12196,9 @@
         <v>1</v>
       </c>
       <c r="P199" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q199" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -11644,18 +12243,21 @@
         <v>0.5</v>
       </c>
       <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
         <v>8</v>
       </c>
-      <c r="M200" t="n">
-        <v>0</v>
-      </c>
       <c r="N200" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P200" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q200" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11700,18 +12302,21 @@
         <v>0</v>
       </c>
       <c r="L201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P201" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q201" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11756,18 +12361,21 @@
         <v>0.333</v>
       </c>
       <c r="L202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P202" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11812,18 +12420,21 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O203" t="n">
         <v>1</v>
       </c>
       <c r="P203" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q203" t="n">
         <v>-22</v>
       </c>
     </row>
@@ -11868,18 +12479,21 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
         <v>10</v>
       </c>
-      <c r="M204" t="n">
-        <v>4</v>
-      </c>
       <c r="N204" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P204" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q204" t="n">
         <v>14</v>
       </c>
     </row>
@@ -11924,18 +12538,21 @@
         <v>0</v>
       </c>
       <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
         <v>6</v>
       </c>
-      <c r="M205" t="n">
-        <v>0</v>
-      </c>
       <c r="N205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
         <v>-18</v>
       </c>
     </row>
@@ -11980,18 +12597,21 @@
         <v>0.25</v>
       </c>
       <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
         <v>9</v>
       </c>
-      <c r="M206" t="n">
-        <v>3</v>
-      </c>
       <c r="N206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O206" t="n">
         <v>1</v>
       </c>
       <c r="P206" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q206" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -12036,18 +12656,21 @@
         <v>0</v>
       </c>
       <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
         <v>5</v>
       </c>
-      <c r="M207" t="n">
-        <v>0</v>
-      </c>
       <c r="N207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P207" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q207" t="n">
         <v>-19</v>
       </c>
     </row>
@@ -12092,18 +12715,21 @@
         <v>0</v>
       </c>
       <c r="L208" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N208" t="n">
         <v>1</v>
       </c>
       <c r="O208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -12148,10 +12774,10 @@
         <v>0.667</v>
       </c>
       <c r="L209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N209" t="n">
         <v>1</v>
@@ -12160,6 +12786,9 @@
         <v>1</v>
       </c>
       <c r="P209" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q209" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -12204,18 +12833,21 @@
         <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -12260,18 +12892,21 @@
         <v>1</v>
       </c>
       <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
         <v>5</v>
       </c>
-      <c r="M211" t="n">
-        <v>0</v>
-      </c>
       <c r="N211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P211" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q211" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -12316,18 +12951,21 @@
         <v>0.25</v>
       </c>
       <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
         <v>7</v>
       </c>
-      <c r="M212" t="n">
-        <v>4</v>
-      </c>
       <c r="N212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O212" t="n">
         <v>1</v>
       </c>
       <c r="P212" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q212" t="n">
         <v>10</v>
       </c>
     </row>
@@ -12372,11 +13010,11 @@
         <v>0.667</v>
       </c>
       <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
         <v>5</v>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
       <c r="N213" t="n">
         <v>1</v>
       </c>
@@ -12384,6 +13022,9 @@
         <v>1</v>
       </c>
       <c r="P213" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q213" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -12428,18 +13069,21 @@
         <v>0.286</v>
       </c>
       <c r="L214" t="n">
+        <v>2</v>
+      </c>
+      <c r="M214" t="n">
         <v>11</v>
       </c>
-      <c r="M214" t="n">
-        <v>2</v>
-      </c>
       <c r="N214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O214" t="n">
         <v>0</v>
       </c>
       <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -12484,18 +13128,21 @@
         <v>0.8</v>
       </c>
       <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
         <v>6</v>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
       <c r="N215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P215" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12540,18 +13187,21 @@
         <v>0.2</v>
       </c>
       <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
         <v>5</v>
       </c>
-      <c r="M216" t="n">
-        <v>0</v>
-      </c>
       <c r="N216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -12596,18 +13246,21 @@
         <v>0.5</v>
       </c>
       <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
         <v>7</v>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
       <c r="N217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O217" t="n">
         <v>2</v>
       </c>
       <c r="P217" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q217" t="n">
         <v>21</v>
       </c>
     </row>
@@ -12652,18 +13305,21 @@
         <v>0.5</v>
       </c>
       <c r="L218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M218" t="n">
         <v>4</v>
       </c>
       <c r="N218" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P218" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q218" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12708,18 +13364,21 @@
         <v>0.25</v>
       </c>
       <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
         <v>10</v>
       </c>
-      <c r="M219" t="n">
-        <v>4</v>
-      </c>
       <c r="N219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P219" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q219" t="n">
         <v>9</v>
       </c>
     </row>
@@ -12773,9 +13432,12 @@
         <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P220" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q220" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -12820,18 +13482,21 @@
         <v>0.875</v>
       </c>
       <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
         <v>10</v>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
       <c r="N221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P221" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q221" t="n">
         <v>35</v>
       </c>
     </row>
@@ -12876,18 +13541,21 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
+        <v>4</v>
+      </c>
+      <c r="M222" t="n">
         <v>14</v>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
       <c r="N222" t="n">
         <v>1</v>
       </c>
       <c r="O222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P222" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q222" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -12932,18 +13600,21 @@
         <v>0.25</v>
       </c>
       <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
         <v>5</v>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
       <c r="N223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P223" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q223" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12988,18 +13659,21 @@
         <v>0.333</v>
       </c>
       <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
         <v>7</v>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
       <c r="N224" t="n">
         <v>1</v>
       </c>
       <c r="O224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P224" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q224" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -13044,18 +13718,21 @@
         <v>0.5</v>
       </c>
       <c r="L225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P225" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q225" t="n">
         <v>21</v>
       </c>
     </row>
@@ -13100,18 +13777,21 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P226" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q226" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -13156,18 +13836,21 @@
         <v>0.667</v>
       </c>
       <c r="L227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P227" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q227" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -13212,18 +13895,21 @@
         <v>0.6</v>
       </c>
       <c r="L228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13268,18 +13954,21 @@
         <v>0.167</v>
       </c>
       <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
         <v>5</v>
       </c>
-      <c r="M229" t="n">
-        <v>2</v>
-      </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P229" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q229" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -13324,10 +14013,10 @@
         <v>0.6</v>
       </c>
       <c r="L230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
@@ -13336,6 +14025,9 @@
         <v>0</v>
       </c>
       <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -13386,12 +14078,15 @@
         <v>1</v>
       </c>
       <c r="N231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P231" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q231" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -13436,18 +14131,21 @@
         <v>0.75</v>
       </c>
       <c r="L232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P232" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q232" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -13492,18 +14190,21 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
         <v>7</v>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
       <c r="N233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P233" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q233" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13548,18 +14249,21 @@
         <v>0.2</v>
       </c>
       <c r="L234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O234" t="n">
         <v>2</v>
       </c>
       <c r="P234" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13604,18 +14308,21 @@
         <v>1</v>
       </c>
       <c r="L235" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N235" t="n">
         <v>0</v>
       </c>
       <c r="O235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P235" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q235" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -13660,18 +14367,21 @@
         <v>0.75</v>
       </c>
       <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
         <v>7</v>
       </c>
-      <c r="M236" t="n">
-        <v>0</v>
-      </c>
       <c r="N236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P236" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q236" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13716,10 +14426,10 @@
         <v>0.25</v>
       </c>
       <c r="L237" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M237" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N237" t="n">
         <v>1</v>
@@ -13728,6 +14438,9 @@
         <v>1</v>
       </c>
       <c r="P237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q237" t="n">
         <v>-28</v>
       </c>
     </row>
@@ -13772,18 +14485,21 @@
         <v>0.75</v>
       </c>
       <c r="L238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O238" t="n">
         <v>0</v>
       </c>
       <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
         <v>25</v>
       </c>
     </row>
@@ -13828,18 +14544,21 @@
         <v>0</v>
       </c>
       <c r="L239" t="n">
+        <v>2</v>
+      </c>
+      <c r="M239" t="n">
         <v>5</v>
       </c>
-      <c r="M239" t="n">
-        <v>2</v>
-      </c>
       <c r="N239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P239" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q239" t="n">
         <v>13</v>
       </c>
     </row>
@@ -13884,18 +14603,21 @@
         <v>0.4</v>
       </c>
       <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
         <v>5</v>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
       <c r="N240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P240" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q240" t="n">
         <v>21</v>
       </c>
     </row>
@@ -13940,18 +14662,21 @@
         <v>0</v>
       </c>
       <c r="L241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P241" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q241" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -13996,18 +14721,21 @@
         <v>0.333</v>
       </c>
       <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
         <v>5</v>
       </c>
-      <c r="M242" t="n">
-        <v>0</v>
-      </c>
       <c r="N242" t="n">
         <v>0</v>
       </c>
       <c r="O242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P242" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q242" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14052,18 +14780,21 @@
         <v>0</v>
       </c>
       <c r="L243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N243" t="n">
         <v>1</v>
       </c>
       <c r="O243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P243" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q243" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14108,18 +14839,21 @@
         <v>0.5</v>
       </c>
       <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
         <v>8</v>
       </c>
-      <c r="M244" t="n">
-        <v>4</v>
-      </c>
       <c r="N244" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P244" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q244" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14164,18 +14898,21 @@
         <v>0.5</v>
       </c>
       <c r="L245" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M245" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -14220,18 +14957,21 @@
         <v>0.667</v>
       </c>
       <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
         <v>5</v>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
       <c r="N246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O246" t="n">
         <v>0</v>
       </c>
       <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14276,18 +15016,21 @@
         <v>1</v>
       </c>
       <c r="L247" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M247" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O247" t="n">
         <v>1</v>
       </c>
       <c r="P247" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q247" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14332,18 +15075,21 @@
         <v>1</v>
       </c>
       <c r="L248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P248" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q248" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14388,18 +15134,21 @@
         <v>1</v>
       </c>
       <c r="L249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P249" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q249" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -14444,18 +15193,21 @@
         <v>0.333</v>
       </c>
       <c r="L250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M250" t="n">
         <v>2</v>
       </c>
       <c r="N250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P250" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q250" t="n">
         <v>15</v>
       </c>
     </row>
@@ -14500,18 +15252,21 @@
         <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N251" t="n">
         <v>1</v>
       </c>
       <c r="O251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -14556,18 +15311,21 @@
         <v>0.25</v>
       </c>
       <c r="L252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P252" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q252" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -14612,18 +15370,21 @@
         <v>0.667</v>
       </c>
       <c r="L253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O253" t="n">
         <v>1</v>
       </c>
       <c r="P253" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q253" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14668,18 +15429,21 @@
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O254" t="n">
         <v>0</v>
       </c>
       <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
         <v>12</v>
       </c>
     </row>
@@ -14724,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M255" t="n">
         <v>1</v>
@@ -14733,9 +15497,12 @@
         <v>1</v>
       </c>
       <c r="O255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -14783,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
@@ -14792,6 +15559,9 @@
         <v>0</v>
       </c>
       <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -14836,18 +15606,21 @@
         <v>0</v>
       </c>
       <c r="L257" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P257" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q257" t="n">
         <v>34</v>
       </c>
     </row>
@@ -14892,18 +15665,21 @@
         <v>0.222</v>
       </c>
       <c r="L258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P258" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q258" t="n">
         <v>5</v>
       </c>
     </row>
@@ -14948,18 +15724,21 @@
         <v>0.6</v>
       </c>
       <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
         <v>6</v>
       </c>
-      <c r="M259" t="n">
-        <v>2</v>
-      </c>
       <c r="N259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O259" t="n">
         <v>0</v>
       </c>
       <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15004,18 +15783,21 @@
         <v>0.4</v>
       </c>
       <c r="L260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M260" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P260" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q260" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -15060,18 +15842,21 @@
         <v>0.5</v>
       </c>
       <c r="L261" t="n">
+        <v>3</v>
+      </c>
+      <c r="M261" t="n">
         <v>5</v>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
       <c r="N261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O261" t="n">
         <v>0</v>
       </c>
       <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -15119,15 +15904,18 @@
         <v>2</v>
       </c>
       <c r="M262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N262" t="n">
         <v>0</v>
       </c>
       <c r="O262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P262" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q262" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -15172,18 +15960,21 @@
         <v>0</v>
       </c>
       <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
         <v>5</v>
       </c>
-      <c r="M263" t="n">
-        <v>4</v>
-      </c>
       <c r="N263" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P263" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15228,18 +16019,21 @@
         <v>0.5</v>
       </c>
       <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
         <v>7</v>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
       <c r="N264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P264" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q264" t="n">
         <v>15</v>
       </c>
     </row>
@@ -15284,18 +16078,21 @@
         <v>0.5</v>
       </c>
       <c r="L265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P265" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q265" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -15340,18 +16137,21 @@
         <v>0.333</v>
       </c>
       <c r="L266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P266" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q266" t="n">
         <v>9</v>
       </c>
     </row>
@@ -15396,18 +16196,21 @@
         <v>0.25</v>
       </c>
       <c r="L267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P267" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q267" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15452,18 +16255,21 @@
         <v>0.5</v>
       </c>
       <c r="L268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N268" t="n">
         <v>1</v>
       </c>
       <c r="O268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P268" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q268" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -15508,18 +16314,21 @@
         <v>0.4</v>
       </c>
       <c r="L269" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" t="n">
         <v>6</v>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
       <c r="N269" t="n">
         <v>1</v>
       </c>
       <c r="O269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P269" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q269" t="n">
         <v>21</v>
       </c>
     </row>
@@ -15564,18 +16373,21 @@
         <v>0</v>
       </c>
       <c r="L270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M270" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N270" t="n">
         <v>2</v>
       </c>
       <c r="O270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -15620,18 +16432,21 @@
         <v>0.5</v>
       </c>
       <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
         <v>5</v>
       </c>
-      <c r="M271" t="n">
-        <v>2</v>
-      </c>
       <c r="N271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P271" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q271" t="n">
         <v>9</v>
       </c>
     </row>
@@ -15688,6 +16503,9 @@
         <v>0</v>
       </c>
       <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -15732,18 +16550,21 @@
         <v>1</v>
       </c>
       <c r="L273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
         <v>5</v>
       </c>
-      <c r="O273" t="n">
-        <v>2</v>
-      </c>
       <c r="P273" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q273" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15788,18 +16609,21 @@
         <v>0.333</v>
       </c>
       <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
         <v>5</v>
       </c>
-      <c r="M274" t="n">
-        <v>2</v>
-      </c>
       <c r="N274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O274" t="n">
         <v>1</v>
       </c>
       <c r="P274" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q274" t="n">
         <v>17</v>
       </c>
     </row>
@@ -15844,18 +16668,21 @@
         <v>0.333</v>
       </c>
       <c r="L275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N275" t="n">
         <v>1</v>
       </c>
       <c r="O275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P275" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q275" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15900,18 +16727,21 @@
         <v>0.667</v>
       </c>
       <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="n">
         <v>8</v>
       </c>
-      <c r="M276" t="n">
-        <v>2</v>
-      </c>
       <c r="N276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O276" t="n">
         <v>0</v>
       </c>
       <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -15956,18 +16786,21 @@
         <v>0.5</v>
       </c>
       <c r="L277" t="n">
+        <v>2</v>
+      </c>
+      <c r="M277" t="n">
         <v>6</v>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
       <c r="N277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P277" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q277" t="n">
         <v>9</v>
       </c>
     </row>
@@ -16018,12 +16851,15 @@
         <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P278" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q278" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -16068,18 +16904,21 @@
         <v>0</v>
       </c>
       <c r="L279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M279" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N279" t="n">
         <v>0</v>
       </c>
       <c r="O279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P279" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q279" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -16124,18 +16963,21 @@
         <v>0.5</v>
       </c>
       <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
         <v>5</v>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
       <c r="N280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P280" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q280" t="n">
         <v>15</v>
       </c>
     </row>
@@ -16180,18 +17022,21 @@
         <v>0.429</v>
       </c>
       <c r="L281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M281" t="n">
         <v>2</v>
       </c>
       <c r="N281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P281" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q281" t="n">
         <v>21</v>
       </c>
     </row>
@@ -16236,18 +17081,21 @@
         <v>0.333</v>
       </c>
       <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
         <v>7</v>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
       <c r="N282" t="n">
         <v>1</v>
       </c>
       <c r="O282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P282" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q282" t="n">
         <v>8</v>
       </c>
     </row>
@@ -16292,18 +17140,21 @@
         <v>0.5</v>
       </c>
       <c r="L283" t="n">
+        <v>3</v>
+      </c>
+      <c r="M283" t="n">
         <v>6</v>
       </c>
-      <c r="M283" t="n">
-        <v>3</v>
-      </c>
       <c r="N283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P283" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q283" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -16348,18 +17199,21 @@
         <v>0.167</v>
       </c>
       <c r="L284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N284" t="n">
         <v>0</v>
       </c>
       <c r="O284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P284" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16404,18 +17258,21 @@
         <v>0.6</v>
       </c>
       <c r="L285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N285" t="n">
         <v>0</v>
       </c>
       <c r="O285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P285" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q285" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -16460,18 +17317,21 @@
         <v>1</v>
       </c>
       <c r="L286" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M286" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N286" t="n">
         <v>1</v>
       </c>
       <c r="O286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P286" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q286" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -16516,18 +17376,21 @@
         <v>0</v>
       </c>
       <c r="L287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M287" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O287" t="n">
         <v>1</v>
       </c>
       <c r="P287" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q287" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -16572,10 +17435,10 @@
         <v>0.25</v>
       </c>
       <c r="L288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N288" t="n">
         <v>0</v>
@@ -16584,6 +17447,9 @@
         <v>0</v>
       </c>
       <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -16628,18 +17494,21 @@
         <v>0.25</v>
       </c>
       <c r="L289" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O289" t="n">
         <v>0</v>
       </c>
       <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
         <v>21</v>
       </c>
     </row>
@@ -16684,18 +17553,21 @@
         <v>0.333</v>
       </c>
       <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
         <v>6</v>
       </c>
-      <c r="M290" t="n">
-        <v>0</v>
-      </c>
       <c r="N290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O290" t="n">
         <v>1</v>
       </c>
       <c r="P290" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q290" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16743,15 +17615,18 @@
         <v>0</v>
       </c>
       <c r="M291" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N291" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P291" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q291" t="n">
         <v>14</v>
       </c>
     </row>
@@ -16796,18 +17671,21 @@
         <v>0</v>
       </c>
       <c r="L292" t="n">
+        <v>4</v>
+      </c>
+      <c r="M292" t="n">
         <v>12</v>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
       <c r="N292" t="n">
         <v>1</v>
       </c>
       <c r="O292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P292" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16852,18 +17730,21 @@
         <v>0.125</v>
       </c>
       <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
         <v>8</v>
       </c>
-      <c r="M293" t="n">
-        <v>3</v>
-      </c>
       <c r="N293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O293" t="n">
         <v>1</v>
       </c>
       <c r="P293" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q293" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -16908,18 +17789,21 @@
         <v>0.6</v>
       </c>
       <c r="L294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N294" t="n">
         <v>1</v>
       </c>
       <c r="O294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
         <v>-16</v>
       </c>
     </row>
@@ -16964,18 +17848,21 @@
         <v>0.5</v>
       </c>
       <c r="L295" t="n">
+        <v>2</v>
+      </c>
+      <c r="M295" t="n">
         <v>6</v>
       </c>
-      <c r="M295" t="n">
-        <v>0</v>
-      </c>
       <c r="N295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P295" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q295" t="n">
         <v>16</v>
       </c>
     </row>
@@ -17020,18 +17907,21 @@
         <v>0.667</v>
       </c>
       <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
         <v>9</v>
       </c>
-      <c r="M296" t="n">
-        <v>0</v>
-      </c>
       <c r="N296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P296" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q296" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17076,18 +17966,21 @@
         <v>0.2</v>
       </c>
       <c r="L297" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N297" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P297" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q297" t="n">
         <v>12</v>
       </c>
     </row>
@@ -17132,18 +18025,21 @@
         <v>0.5</v>
       </c>
       <c r="L298" t="n">
+        <v>2</v>
+      </c>
+      <c r="M298" t="n">
         <v>6</v>
       </c>
-      <c r="M298" t="n">
-        <v>2</v>
-      </c>
       <c r="N298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P298" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q298" t="n">
         <v>15</v>
       </c>
     </row>
@@ -17188,18 +18084,21 @@
         <v>0.5</v>
       </c>
       <c r="L299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O299" t="n">
         <v>1</v>
       </c>
       <c r="P299" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q299" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17244,18 +18143,21 @@
         <v>0.8</v>
       </c>
       <c r="L300" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M300" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O300" t="n">
         <v>1</v>
       </c>
       <c r="P300" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q300" t="n">
         <v>21</v>
       </c>
     </row>
@@ -17300,18 +18202,21 @@
         <v>0.333</v>
       </c>
       <c r="L301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N301" t="n">
         <v>1</v>
       </c>
       <c r="O301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P301" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q301" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -17356,18 +18261,21 @@
         <v>0.4</v>
       </c>
       <c r="L302" t="n">
+        <v>2</v>
+      </c>
+      <c r="M302" t="n">
         <v>7</v>
       </c>
-      <c r="M302" t="n">
-        <v>2</v>
-      </c>
       <c r="N302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P302" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q302" t="n">
         <v>12</v>
       </c>
     </row>
@@ -17412,18 +18320,21 @@
         <v>0</v>
       </c>
       <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
         <v>5</v>
       </c>
-      <c r="M303" t="n">
-        <v>0</v>
-      </c>
       <c r="N303" t="n">
         <v>0</v>
       </c>
       <c r="O303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P303" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q303" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17468,18 +18379,21 @@
         <v>0.333</v>
       </c>
       <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="n">
         <v>7</v>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
       <c r="N304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P304" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q304" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -17524,18 +18438,21 @@
         <v>0.25</v>
       </c>
       <c r="L305" t="n">
+        <v>3</v>
+      </c>
+      <c r="M305" t="n">
         <v>6</v>
       </c>
-      <c r="M305" t="n">
-        <v>4</v>
-      </c>
       <c r="N305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
         <v>3</v>
       </c>
     </row>
@@ -17580,18 +18497,21 @@
         <v>0.4</v>
       </c>
       <c r="L306" t="n">
+        <v>2</v>
+      </c>
+      <c r="M306" t="n">
         <v>8</v>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
       <c r="N306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O306" t="n">
         <v>2</v>
       </c>
       <c r="P306" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q306" t="n">
         <v>10</v>
       </c>
     </row>
@@ -17636,10 +18556,10 @@
         <v>0.75</v>
       </c>
       <c r="L307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N307" t="n">
         <v>1</v>
@@ -17648,6 +18568,9 @@
         <v>1</v>
       </c>
       <c r="P307" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q307" t="n">
         <v>-16</v>
       </c>
     </row>
@@ -17695,15 +18618,18 @@
         <v>1</v>
       </c>
       <c r="M308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P308" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q308" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -17751,15 +18677,18 @@
         <v>1</v>
       </c>
       <c r="M309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P309" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q309" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17804,18 +18733,21 @@
         <v>0.333</v>
       </c>
       <c r="L310" t="n">
+        <v>3</v>
+      </c>
+      <c r="M310" t="n">
         <v>8</v>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
       <c r="N310" t="n">
         <v>1</v>
       </c>
       <c r="O310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P310" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q310" t="n">
         <v>10</v>
       </c>
     </row>
@@ -17860,18 +18792,21 @@
         <v>0</v>
       </c>
       <c r="L311" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P311" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q311" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -17916,18 +18851,21 @@
         <v>0</v>
       </c>
       <c r="L312" t="n">
+        <v>3</v>
+      </c>
+      <c r="M312" t="n">
         <v>5</v>
       </c>
-      <c r="M312" t="n">
-        <v>0</v>
-      </c>
       <c r="N312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O312" t="n">
         <v>1</v>
       </c>
       <c r="P312" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q312" t="n">
         <v>-17</v>
       </c>
     </row>
@@ -17972,18 +18910,21 @@
         <v>0.8</v>
       </c>
       <c r="L313" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M313" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O313" t="n">
         <v>1</v>
       </c>
       <c r="P313" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q313" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -18028,18 +18969,21 @@
         <v>0.714</v>
       </c>
       <c r="L314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N314" t="n">
         <v>1</v>
       </c>
       <c r="O314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P314" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q314" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -18084,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M315" t="n">
         <v>1</v>
@@ -18096,6 +19040,9 @@
         <v>1</v>
       </c>
       <c r="P315" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q315" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -18140,18 +19087,21 @@
         <v>0.2</v>
       </c>
       <c r="L316" t="n">
+        <v>3</v>
+      </c>
+      <c r="M316" t="n">
         <v>11</v>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
       <c r="N316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P316" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q316" t="n">
         <v>10</v>
       </c>
     </row>
@@ -18196,18 +19146,21 @@
         <v>0.25</v>
       </c>
       <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="n">
         <v>5</v>
       </c>
-      <c r="M317" t="n">
-        <v>2</v>
-      </c>
       <c r="N317" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P317" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q317" t="n">
         <v>21</v>
       </c>
     </row>
@@ -18252,18 +19205,21 @@
         <v>0</v>
       </c>
       <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="n">
         <v>6</v>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
       <c r="N318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O318" t="n">
+        <v>3</v>
+      </c>
+      <c r="P318" t="n">
         <v>5</v>
       </c>
-      <c r="P318" t="n">
+      <c r="Q318" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18308,18 +19264,21 @@
         <v>0</v>
       </c>
       <c r="L319" t="n">
+        <v>2</v>
+      </c>
+      <c r="M319" t="n">
         <v>7</v>
       </c>
-      <c r="M319" t="n">
-        <v>3</v>
-      </c>
       <c r="N319" t="n">
         <v>3</v>
       </c>
       <c r="O319" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P319" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q319" t="n">
         <v>-18</v>
       </c>
     </row>
@@ -18364,18 +19323,21 @@
         <v>0.6</v>
       </c>
       <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
         <v>5</v>
       </c>
-      <c r="M320" t="n">
-        <v>2</v>
-      </c>
       <c r="N320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P320" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q320" t="n">
         <v>31</v>
       </c>
     </row>
@@ -18420,18 +19382,21 @@
         <v>1</v>
       </c>
       <c r="L321" t="n">
+        <v>2</v>
+      </c>
+      <c r="M321" t="n">
         <v>9</v>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
       <c r="N321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P321" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q321" t="n">
         <v>5</v>
       </c>
     </row>
@@ -18476,18 +19441,21 @@
         <v>0.5</v>
       </c>
       <c r="L322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M322" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N322" t="n">
         <v>1</v>
       </c>
       <c r="O322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
         <v>-27</v>
       </c>
     </row>
@@ -18532,10 +19500,10 @@
         <v>0</v>
       </c>
       <c r="L323" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M323" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N323" t="n">
         <v>2</v>
@@ -18544,6 +19512,9 @@
         <v>2</v>
       </c>
       <c r="P323" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q323" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -18588,18 +19559,21 @@
         <v>0.25</v>
       </c>
       <c r="L324" t="n">
+        <v>3</v>
+      </c>
+      <c r="M324" t="n">
         <v>7</v>
       </c>
-      <c r="M324" t="n">
-        <v>3</v>
-      </c>
       <c r="N324" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O324" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P324" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q324" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -18644,18 +19618,21 @@
         <v>0</v>
       </c>
       <c r="L325" t="n">
+        <v>3</v>
+      </c>
+      <c r="M325" t="n">
         <v>5</v>
       </c>
-      <c r="M325" t="n">
-        <v>2</v>
-      </c>
       <c r="N325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O325" t="n">
         <v>1</v>
       </c>
       <c r="P325" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q325" t="n">
         <v>-8</v>
       </c>
     </row>
@@ -18700,18 +19677,21 @@
         <v>0.5</v>
       </c>
       <c r="L326" t="n">
+        <v>2</v>
+      </c>
+      <c r="M326" t="n">
         <v>5</v>
       </c>
-      <c r="M326" t="n">
-        <v>2</v>
-      </c>
       <c r="N326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P326" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q326" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -18756,18 +19736,21 @@
         <v>0.25</v>
       </c>
       <c r="L327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
       <c r="N327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P327" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q327" t="n">
         <v>-10</v>
       </c>
     </row>
@@ -18812,18 +19795,21 @@
         <v>0.5</v>
       </c>
       <c r="L328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P328" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q328" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -18868,18 +19854,21 @@
         <v>0.75</v>
       </c>
       <c r="L329" t="n">
+        <v>3</v>
+      </c>
+      <c r="M329" t="n">
         <v>7</v>
       </c>
-      <c r="M329" t="n">
-        <v>3</v>
-      </c>
       <c r="N329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O329" t="n">
         <v>1</v>
       </c>
       <c r="P329" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q329" t="n">
         <v>7</v>
       </c>
     </row>
@@ -18924,18 +19913,21 @@
         <v>0</v>
       </c>
       <c r="L330" t="n">
+        <v>3</v>
+      </c>
+      <c r="M330" t="n">
         <v>5</v>
       </c>
-      <c r="M330" t="n">
-        <v>0</v>
-      </c>
       <c r="N330" t="n">
         <v>0</v>
       </c>
       <c r="O330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P330" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q330" t="n">
         <v>6</v>
       </c>
     </row>
@@ -18980,18 +19972,21 @@
         <v>0.5</v>
       </c>
       <c r="L331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N331" t="n">
         <v>1</v>
       </c>
       <c r="O331" t="n">
+        <v>1</v>
+      </c>
+      <c r="P331" t="n">
         <v>5</v>
       </c>
-      <c r="P331" t="n">
+      <c r="Q331" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -19036,18 +20031,21 @@
         <v>1</v>
       </c>
       <c r="L332" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M332" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P332" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q332" t="n">
         <v>-7</v>
       </c>
     </row>
@@ -19092,18 +20090,21 @@
         <v>0.4</v>
       </c>
       <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="n">
         <v>5</v>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
       <c r="N333" t="n">
         <v>1</v>
       </c>
       <c r="O333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -19148,18 +20149,21 @@
         <v>0</v>
       </c>
       <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
         <v>5</v>
       </c>
-      <c r="M334" t="n">
-        <v>2</v>
-      </c>
       <c r="N334" t="n">
         <v>2</v>
       </c>
       <c r="O334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P334" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q334" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -19204,18 +20208,21 @@
         <v>1</v>
       </c>
       <c r="L335" t="n">
+        <v>5</v>
+      </c>
+      <c r="M335" t="n">
         <v>10</v>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
       <c r="N335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
         <v>5</v>
       </c>
-      <c r="P335" t="n">
+      <c r="Q335" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19260,18 +20267,21 @@
         <v>1</v>
       </c>
       <c r="L336" t="n">
+        <v>4</v>
+      </c>
+      <c r="M336" t="n">
         <v>9</v>
       </c>
-      <c r="M336" t="n">
-        <v>3</v>
-      </c>
       <c r="N336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O336" t="n">
         <v>1</v>
       </c>
       <c r="P336" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q336" t="n">
         <v>17</v>
       </c>
     </row>
@@ -19316,18 +20326,21 @@
         <v>0.5</v>
       </c>
       <c r="L337" t="n">
+        <v>2</v>
+      </c>
+      <c r="M337" t="n">
         <v>7</v>
       </c>
-      <c r="M337" t="n">
-        <v>2</v>
-      </c>
       <c r="N337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O337" t="n">
         <v>1</v>
       </c>
       <c r="P337" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19372,18 +20385,21 @@
         <v>0.25</v>
       </c>
       <c r="L338" t="n">
+        <v>3</v>
+      </c>
+      <c r="M338" t="n">
         <v>5</v>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
       <c r="N338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P338" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q338" t="n">
         <v>19</v>
       </c>
     </row>
